--- a/va_facility_data_2025-02-20/Chattanooga VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Chattanooga%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Chattanooga VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Chattanooga%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb66c5c2e10314ee09a1465de67ec1b1f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2185758fa7f34c23b2131651c4f53d43"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf6e794da34a84ce79f876fb9dd1d66f7"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R0a8e60ec50c94ee187863e5419203f68"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R40834708df7949ebad8fedbd12a487e4"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7967a9ea5cf743c5bf77c812bb19b212"/>
   </x:sheets>
 </x:workbook>
 </file>
